--- a/data-raw/fluxes/lf_05-bay/lf_05-bay_d_2020-02-08.xlsx
+++ b/data-raw/fluxes/lf_05-bay/lf_05-bay_d_2020-02-08.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_05-bay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05-bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F58FAA-72AA-CE42-ABD7-982C7A15AE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2FF1D-2447-9241-976E-499730B5A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="1720" windowWidth="18900" windowHeight="16940" xr2:uid="{101A82DF-E6B5-5B46-9986-3500AB660F6E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="11">
   <si>
     <t>time</t>
   </si>
@@ -62,16 +62,10 @@
     <t>run</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>oxygen</t>
   </si>
   <si>
     <t>21%</t>
-  </si>
-  <si>
-    <t>DMSO</t>
   </si>
   <si>
     <t>0.5%</t>
@@ -81,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,12 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -432,170 +425,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685FC2E-8A1C-C645-8D24-132AF64BA898}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2">
+        <v>59.234000000000002</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="C3">
+        <v>71.173000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>70.957999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>70.754999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>70.528999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="B7">
         <v>-24</v>
       </c>
-      <c r="D2">
-        <v>59.234000000000002</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="C7">
+        <v>58.973999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>71.173000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="C8">
+        <v>70.710999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="B9">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>70.957999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
+      <c r="C9">
+        <v>70.361999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B10">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>70.754999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="C10">
+        <v>70.016999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
+      <c r="B11">
         <v>72</v>
       </c>
-      <c r="D6">
-        <v>70.528999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>-24</v>
-      </c>
-      <c r="D7">
-        <v>58.973999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>70.710999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>70.361999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10">
-        <v>70.016999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C11">
-        <v>72</v>
-      </c>
-      <c r="D11">
         <v>69.675999999999988</v>
       </c>
     </row>
@@ -610,9 +567,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -632,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -649,7 +606,7 @@
         <v>10.382999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -667,7 +624,7 @@
         <v>63.536000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -685,7 +642,7 @@
         <v>107.214</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -703,7 +660,7 @@
         <v>198.98</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -721,7 +678,7 @@
         <v>375.447</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -739,7 +696,7 @@
         <v>717.03200000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -757,7 +714,7 @@
         <v>1397.6420000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -774,7 +731,7 @@
         <v>2697.395</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -791,7 +748,7 @@
         <v>153.274</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -809,7 +766,7 @@
         <v>156.72800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -827,7 +784,7 @@
         <v>188.27199999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -845,7 +802,7 @@
         <v>319.70100000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -863,7 +820,7 @@
         <v>264.435</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -881,7 +838,7 @@
         <v>269.55700000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -899,7 +856,7 @@
         <v>561.46799999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -917,7 +874,7 @@
         <v>544.99099999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -935,7 +892,7 @@
         <v>695.99599999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -953,7 +910,7 @@
         <v>1082.7049999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -971,7 +928,7 @@
         <v>857.28200000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -989,7 +946,7 @@
         <v>981.24800000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +964,7 @@
         <v>156.511</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1025,7 +982,7 @@
         <v>142.75700000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1000,7 @@
         <v>112.07299999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1018,7 @@
         <v>180.48699999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1036,7 @@
         <v>215.31299999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1097,7 +1054,7 @@
         <v>278.00099999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1072,7 @@
         <v>446.93700000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1090,7 @@
         <v>492.22500000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1108,7 @@
         <v>463.98</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1126,7 @@
         <v>581.65</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1144,7 @@
         <v>617.75400000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1162,7 @@
         <v>672.47799999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1179,7 @@
         <v>9.1760000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1241,7 +1198,7 @@
       </c>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1217,7 @@
       </c>
       <c r="AI36" s="1"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1279,7 +1236,7 @@
       </c>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1254,7 @@
         <v>349.41899999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1272,7 @@
         <v>671.92100000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1290,7 @@
         <v>1343.08</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1307,7 @@
         <v>2662.723</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1367,7 +1324,7 @@
         <v>154.15799999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1385,7 +1342,7 @@
         <v>102.015</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1403,7 +1360,7 @@
         <v>129.27699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1378,7 @@
         <v>182.35499999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +1396,7 @@
         <v>177.54</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1414,7 @@
         <v>191.53899999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1432,7 @@
         <v>301.70499999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1450,7 @@
         <v>257.625</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1511,7 +1468,7 @@
         <v>292.56200000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +1486,7 @@
         <v>586.72400000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1504,7 @@
         <v>586.64499999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1522,7 @@
         <v>428.31099999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1583,7 +1540,7 @@
         <v>117.98399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +1558,7 @@
         <v>130.21799999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1576,7 @@
         <v>118.045</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1637,7 +1594,7 @@
         <v>153.06700000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1612,7 @@
         <v>163.04300000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1630,7 @@
         <v>179.93199999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1648,7 @@
         <v>301.94</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +1666,7 @@
         <v>298.93700000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1727,7 +1684,7 @@
         <v>254.946</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1702,7 @@
         <v>481.68299999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1763,7 +1720,7 @@
         <v>402.51900000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1792,9 +1749,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1782,7 @@
         <v>6.2600000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1793,7 @@
         <v>0.23169999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1847,7 +1804,7 @@
         <v>0.41339999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1858,7 +1815,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +1826,7 @@
         <v>0.77839999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1880,7 +1837,7 @@
         <v>1.0702</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1848,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1902,7 +1859,7 @@
         <v>1.7434000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1913,7 +1870,7 @@
         <v>0.89690000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +1882,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +1894,7 @@
         <v>0.84960000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1949,7 +1906,7 @@
         <v>0.82669999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +1918,7 @@
         <v>0.83279999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1973,7 +1930,7 @@
         <v>0.82030000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +1942,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1997,7 +1954,7 @@
         <v>0.78449999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +1966,7 @@
         <v>0.8165</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2021,7 +1978,7 @@
         <v>0.73370000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2033,7 +1990,7 @@
         <v>0.71679999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2002,7 @@
         <v>0.75039999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2057,7 +2014,7 @@
         <v>0.86629999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2026,7 @@
         <v>0.86670000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2038,7 @@
         <v>0.83630000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2093,7 +2050,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2062,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2117,7 +2074,7 @@
         <v>0.83550000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2086,7 @@
         <v>0.78029999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2141,7 +2098,7 @@
         <v>0.8024</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2110,7 @@
         <v>0.79110000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2122,7 @@
         <v>0.72389999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2177,7 +2134,7 @@
         <v>0.69569999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2189,7 +2146,7 @@
         <v>0.71950000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2158,7 @@
         <v>0.82589999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2170,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2225,7 +2182,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2194,7 @@
         <v>0.82530000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2249,7 +2206,7 @@
         <v>0.85329999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2218,7 @@
         <v>0.85950000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2230,7 @@
         <v>0.87649999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2242,7 @@
         <v>0.83230000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2254,7 @@
         <v>0.92230000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2266,7 @@
         <v>0.84609999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2321,7 +2278,7 @@
         <v>0.79769999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2290,7 @@
         <v>0.78439999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2345,7 +2302,7 @@
         <v>0.8347</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2357,7 +2314,7 @@
         <v>0.85529999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2326,7 @@
         <v>0.85529999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2381,7 +2338,7 @@
         <v>0.8821</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2393,7 +2350,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2362,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +2374,7 @@
         <v>0.85619999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2429,7 +2386,7 @@
         <v>0.89470000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2441,7 +2398,7 @@
         <v>0.87129999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2453,7 +2410,7 @@
         <v>0.83609999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2465,7 +2422,7 @@
         <v>0.8115</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2488,9 +2445,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +2467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2521,7 +2478,7 @@
         <v>1857.943</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2532,7 +2489,7 @@
         <v>2330.1219999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2500,7 @@
         <v>3013.9560000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2554,7 +2511,7 @@
         <v>4652.5450000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2565,7 +2522,7 @@
         <v>8844.91</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2576,7 +2533,7 @@
         <v>17334.280999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2587,7 +2544,7 @@
         <v>26030.263999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2555,7 @@
         <v>45136.758000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2609,7 +2566,7 @@
         <v>2695.9720000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2578,7 @@
         <v>2598.6460000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2590,7 @@
         <v>2622.2289999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2602,7 @@
         <v>4101.643</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2657,7 +2614,7 @@
         <v>3916.3989999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2669,7 +2626,7 @@
         <v>4105.3519999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2638,7 @@
         <v>7132.1049999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2693,7 +2650,7 @@
         <v>7218.4859999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2705,7 +2662,7 @@
         <v>7449.94</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2717,7 +2674,7 @@
         <v>16486.393</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2729,7 +2686,7 @@
         <v>13843.746999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +2698,7 @@
         <v>16084.755999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2753,7 +2710,7 @@
         <v>2667.7689999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2765,7 +2722,7 @@
         <v>2664.866</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2777,7 +2734,7 @@
         <v>2681.4470000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2789,7 +2746,7 @@
         <v>4359.7060000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2801,7 +2758,7 @@
         <v>4370.2690000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2813,7 +2770,7 @@
         <v>4193.5429999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2825,7 +2782,7 @@
         <v>7260.9769999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2837,7 +2794,7 @@
         <v>8885.8119999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2806,7 @@
         <v>8066.4840000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2861,7 +2818,7 @@
         <v>14941.052</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2873,7 +2830,7 @@
         <v>14850.322</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2885,7 +2842,7 @@
         <v>12996.125</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +2854,7 @@
         <v>2652.3850000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2909,7 +2866,7 @@
         <v>2595.616</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2921,7 +2878,7 @@
         <v>2663.8789999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2933,7 +2890,7 @@
         <v>4053.8069999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2945,7 +2902,7 @@
         <v>3708.8209999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2957,7 +2914,7 @@
         <v>3545.1640000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2969,7 +2926,7 @@
         <v>5750.84</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2981,7 +2938,7 @@
         <v>6055.5619999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +2950,7 @@
         <v>5537.1909999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3005,7 +2962,7 @@
         <v>9414.1470000000008</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3017,7 +2974,7 @@
         <v>9042.8040000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3029,7 +2986,7 @@
         <v>6843.4809999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3041,7 +2998,7 @@
         <v>2655.2289999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3053,7 +3010,7 @@
         <v>2679.1840000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3065,7 +3022,7 @@
         <v>2678.527</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3077,7 +3034,7 @@
         <v>3911.9009999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3089,7 +3046,7 @@
         <v>3561.1909999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3101,7 +3058,7 @@
         <v>3570.4490000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3113,7 +3070,7 @@
         <v>6157.5060000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3125,7 +3082,7 @@
         <v>5555.16</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3137,7 +3094,7 @@
         <v>5634.1549999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3149,7 +3106,7 @@
         <v>9397.7579999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -3161,7 +3118,7 @@
         <v>8165.826</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
